--- a/mf-intelligence/data/separated_files/nippon/Nippon India ELSS Tax Saver Fund/Nippon India ELSS Tax Saver Fund_Oct_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India ELSS Tax Saver Fund/Nippon India ELSS Tax Saver Fund_Oct_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -799,145 +799,145 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BTVL03</t>
+          <t>RAKH02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IN9397D01014</t>
+          <t>INE944F01028</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited- Partly Paid up</t>
+          <t>Radico Khaitan Limited</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Telecom - Services</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2290000</v>
+        <v>1110000</v>
       </c>
       <c r="F12" t="n">
-        <v>35876.29</v>
+        <v>34759.65</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0231</v>
+        <v>0.0224</v>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RAKH02</t>
+          <t>ZMPL01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INE944F01028</t>
+          <t>INE758T01015</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Radico Khaitan Limited</t>
+          <t>Eternal Limited</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1110000</v>
+        <v>10700000</v>
       </c>
       <c r="F13" t="n">
-        <v>34759.65</v>
+        <v>33999.25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0224</v>
+        <v>0.0219</v>
       </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ZMPL01</t>
+          <t>ITCL02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INE758T01015</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Eternal Limited</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Retailing</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10700000</v>
+        <v>7200000</v>
       </c>
       <c r="F14" t="n">
-        <v>33999.25</v>
+        <v>30265.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0219</v>
+        <v>0.0195</v>
       </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ITCL02</t>
+          <t>ILOM01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE765G01017</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>ICICI Lombard General Insurance Company Limited</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Diversified FMCG</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7200000</v>
+        <v>1500000</v>
       </c>
       <c r="F15" t="n">
-        <v>30265.2</v>
+        <v>29905.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0195</v>
+        <v>0.0193</v>
       </c>
       <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ILOM01</t>
+          <t>MAXI02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INE765G01017</t>
+          <t>INE180A01020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Company Limited</t>
+          <t>Max Financial Services Limited</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -946,714 +946,714 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1500000</v>
+        <v>1900000</v>
       </c>
       <c r="F16" t="n">
-        <v>29905.5</v>
+        <v>29383.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0193</v>
+        <v>0.0189</v>
       </c>
       <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MAXI02</t>
+          <t>TINV04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INE180A01020</t>
+          <t>INE149A01033</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Max Financial Services Limited</t>
+          <t>Cholamandalam Financial Holdings Limited</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1900000</v>
+        <v>1480788</v>
       </c>
       <c r="F17" t="n">
-        <v>29383.5</v>
+        <v>28321.55</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0189</v>
+        <v>0.0183</v>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TINV04</t>
+          <t>LARS02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INE149A01033</t>
+          <t>INE018A01030</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cholamandalam Financial Holdings Limited</t>
+          <t>Larsen &amp; Toubro Limited</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1480788</v>
+        <v>700000</v>
       </c>
       <c r="F18" t="n">
-        <v>28321.55</v>
+        <v>28216.3</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0183</v>
+        <v>0.0182</v>
       </c>
       <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LARS02</t>
+          <t>INAV01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE646L01027</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Limited</t>
+          <t>InterGlobe Aviation Limited</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="F19" t="n">
-        <v>28216.3</v>
+        <v>28125</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0182</v>
+        <v>0.0181</v>
       </c>
       <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INAV01</t>
+          <t>COAL01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INE646L01027</t>
+          <t>INE522F01014</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>InterGlobe Aviation Limited</t>
+          <t>Coal India Limited</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Transport Services</t>
+          <t>Consumable Fuels</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>500000</v>
+        <v>6800000</v>
       </c>
       <c r="F20" t="n">
-        <v>28125</v>
+        <v>26428.2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0181</v>
+        <v>0.017</v>
       </c>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>COAL01</t>
+          <t>HGEL01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INE522F01014</t>
+          <t>INE075I01017</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Coal India Limited</t>
+          <t>Healthcare Global Enterprises Limited</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Consumable Fuels</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6800000</v>
+        <v>3500000</v>
       </c>
       <c r="F21" t="n">
-        <v>26428.2</v>
+        <v>26150.25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.017</v>
+        <v>0.0169</v>
       </c>
       <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HGEL01</t>
+          <t>ULCC01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INE075I01017</t>
+          <t>INE481G01011</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Healthcare Global Enterprises Limited</t>
+          <t>UltraTech Cement Limited</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Healthcare Services</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3500000</v>
+        <v>199338</v>
       </c>
       <c r="F22" t="n">
-        <v>26150.25</v>
+        <v>23814.91</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0169</v>
+        <v>0.0154</v>
       </c>
       <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ULCC01</t>
+          <t>AVSP01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INE481G01011</t>
+          <t>INE192R01011</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UltraTech Cement Limited</t>
+          <t>Avenue Supermarts Limited</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>199338</v>
+        <v>570000</v>
       </c>
       <c r="F23" t="n">
-        <v>23814.91</v>
+        <v>23674.95</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0154</v>
+        <v>0.0153</v>
       </c>
       <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AVSP01</t>
+          <t>RELC01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INE192R01011</t>
+          <t>INE020B01018</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Avenue Supermarts Limited</t>
+          <t>REC Limited</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Retailing</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>570000</v>
+        <v>6200000</v>
       </c>
       <c r="F24" t="n">
-        <v>23674.95</v>
+        <v>23240.7</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0153</v>
+        <v>0.015</v>
       </c>
       <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RELC01</t>
+          <t>MCSP02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INE020B01018</t>
+          <t>INE854D01024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>REC Limited</t>
+          <t>United Spirits Limited</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6200000</v>
+        <v>1600000</v>
       </c>
       <c r="F25" t="n">
-        <v>23240.7</v>
+        <v>22902.4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.015</v>
+        <v>0.0148</v>
       </c>
       <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MCSP02</t>
+          <t>IHOT02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INE854D01024</t>
+          <t>INE053A01029</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>United Spirits Limited</t>
+          <t>The Indian Hotels Company Limited</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1600000</v>
+        <v>3078843</v>
       </c>
       <c r="F26" t="n">
-        <v>22902.4</v>
+        <v>22838.86</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0148</v>
+        <v>0.0147</v>
       </c>
       <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IHOT02</t>
+          <t>DIVI02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INE053A01029</t>
+          <t>INE361B01024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The Indian Hotels Company Limited</t>
+          <t>Divi's Laboratories Limited</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Leisure Services</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3078843</v>
+        <v>330000</v>
       </c>
       <c r="F27" t="n">
-        <v>22838.86</v>
+        <v>22235.4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0147</v>
+        <v>0.0143</v>
       </c>
       <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DIVI02</t>
+          <t>SLIF01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INE361B01024</t>
+          <t>INE123W01016</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Divi's Laboratories Limited</t>
+          <t>SBI Life Insurance Company Limited</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>330000</v>
+        <v>1100000</v>
       </c>
       <c r="F28" t="n">
-        <v>22235.4</v>
+        <v>21512.7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0143</v>
+        <v>0.0139</v>
       </c>
       <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SLIF01</t>
+          <t>TPOW02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INE123W01016</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SBI Life Insurance Company Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1100000</v>
+        <v>5300000</v>
       </c>
       <c r="F29" t="n">
-        <v>21512.7</v>
+        <v>21459.7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0139</v>
+        <v>0.0138</v>
       </c>
       <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TPOW02</t>
+          <t>GLAN02</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE068V01023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Gland Pharma Limited</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5300000</v>
+        <v>1100000</v>
       </c>
       <c r="F30" t="n">
-        <v>21459.7</v>
+        <v>21217.9</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0138</v>
+        <v>0.0137</v>
       </c>
       <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLAN02</t>
+          <t>VNBL03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INE068V01023</t>
+          <t>INE200M01039</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gland Pharma Limited</t>
+          <t>Varun Beverages Limited</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1100000</v>
+        <v>4500000</v>
       </c>
       <c r="F31" t="n">
-        <v>21217.9</v>
+        <v>21134.25</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0137</v>
+        <v>0.0136</v>
       </c>
       <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>VNBL03</t>
+          <t>KSPL02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>INE200M01039</t>
+          <t>INE999A01023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Varun Beverages Limited</t>
+          <t>KSB Limited</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4500000</v>
+        <v>2649618</v>
       </c>
       <c r="F32" t="n">
-        <v>21134.25</v>
+        <v>20949.2</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0136</v>
+        <v>0.0135</v>
       </c>
       <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KSPL02</t>
+          <t>NAYV01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INE999A01023</t>
+          <t>INE589A01014</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>KSB Limited</t>
+          <t>NLC India Limited</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Industrial Products</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2649618</v>
+        <v>7444108</v>
       </c>
       <c r="F33" t="n">
-        <v>20949.2</v>
+        <v>19525.9</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0135</v>
+        <v>0.0126</v>
       </c>
       <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NAYV01</t>
+          <t>ALLI02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INE589A01014</t>
+          <t>INE200A01026</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NLC India Limited</t>
+          <t>GE Vernova T&amp;D India Limited</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>7444108</v>
+        <v>574629</v>
       </c>
       <c r="F34" t="n">
-        <v>19525.9</v>
+        <v>17453.78</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0126</v>
+        <v>0.0113</v>
       </c>
       <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ALLI02</t>
+          <t>RELS01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INE200A01026</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GE Vernova T&amp;D India Limited</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Electrical Equipment</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>574629</v>
+        <v>5400000</v>
       </c>
       <c r="F35" t="n">
-        <v>17453.78</v>
+        <v>16567.2</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0113</v>
+        <v>0.0107</v>
       </c>
       <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RELS01</t>
+          <t>HAIL03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE176B01034</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>Havells India Limited</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5400000</v>
+        <v>1100000</v>
       </c>
       <c r="F36" t="n">
-        <v>16567.2</v>
+        <v>16432.9</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0107</v>
+        <v>0.0106</v>
       </c>
       <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HAIL03</t>
+          <t>BOCL01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INE176B01034</t>
+          <t>INE473A01011</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Havells India Limited</t>
+          <t>Linde India Limited</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1100000</v>
+        <v>271642</v>
       </c>
       <c r="F37" t="n">
-        <v>16432.9</v>
+        <v>16335.19</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0106</v>
+        <v>0.0105</v>
       </c>
       <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BOCL01</t>
+          <t>TTEA02</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INE473A01011</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Linde India Limited</t>
+          <t>Tata Consumer Products Limited</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Chemicals &amp; Petrochemicals</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>271642</v>
+        <v>1401923</v>
       </c>
       <c r="F38" t="n">
-        <v>16335.19</v>
+        <v>16332.4</v>
       </c>
       <c r="G38" t="n">
         <v>0.0105</v>
@@ -1663,93 +1663,93 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TTEA02</t>
+          <t>GUAM02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE079A01024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tata Consumer Products Limited</t>
+          <t>Ambuja Cements Limited</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Agricultural Food &amp; other Products</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1401923</v>
+        <v>2700000</v>
       </c>
       <c r="F39" t="n">
-        <v>16332.4</v>
+        <v>15265.8</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0105</v>
+        <v>0.0098</v>
       </c>
       <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GUAM02</t>
+          <t>BSEL02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>INE079A01024</t>
+          <t>INE118H01025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ambuja Cements Limited</t>
+          <t>BSE Limited</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2700000</v>
+        <v>584347</v>
       </c>
       <c r="F40" t="n">
-        <v>15265.8</v>
+        <v>14485.96</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0098</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BSEL02</t>
+          <t>UBBL02</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>INE118H01025</t>
+          <t>INE686F01025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BSE Limited</t>
+          <t>United Breweries Limited</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>584347</v>
+        <v>800000</v>
       </c>
       <c r="F41" t="n">
-        <v>14485.96</v>
+        <v>14379.2</v>
       </c>
       <c r="G41" t="n">
         <v>0.009299999999999999</v>
@@ -1759,29 +1759,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UBBL02</t>
+          <t>BIRM01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>INE686F01025</t>
+          <t>INE470A01017</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>United Breweries Limited</t>
+          <t>3M India Limited</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Diversified</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>800000</v>
+        <v>48600</v>
       </c>
       <c r="F42" t="n">
-        <v>14379.2</v>
+        <v>14366.16</v>
       </c>
       <c r="G42" t="n">
         <v>0.009299999999999999</v>
@@ -1791,349 +1791,349 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BIRM01</t>
+          <t>CGCE01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>INE470A01017</t>
+          <t>INE299U01018</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3M India Limited</t>
+          <t>Crompton Greaves Consumer Electricals Limited</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Diversified</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>48600</v>
+        <v>5000090</v>
       </c>
       <c r="F43" t="n">
-        <v>14366.16</v>
+        <v>14135.25</v>
       </c>
       <c r="G43" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.0091</v>
       </c>
       <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CGCE01</t>
+          <t>LTIL01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INE299U01018</t>
+          <t>INE214T01019</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Crompton Greaves Consumer Electricals Limited</t>
+          <t>LTIMindtree Limited</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5000090</v>
+        <v>238214</v>
       </c>
       <c r="F44" t="n">
-        <v>14135.25</v>
+        <v>13541.27</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0091</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LTIL01</t>
+          <t>UNBI01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INE214T01019</t>
+          <t>INE692A01016</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LTIMindtree Limited</t>
+          <t>Union Bank of India</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IT - Software</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>238214</v>
+        <v>8930000</v>
       </c>
       <c r="F45" t="n">
-        <v>13541.27</v>
+        <v>13276.23</v>
       </c>
       <c r="G45" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0086</v>
       </c>
       <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UNBI01</t>
+          <t>MKIP01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>INE692A01016</t>
+          <t>INE634S01028</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Union Bank of India</t>
+          <t>Mankind Pharma Limited</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>8930000</v>
+        <v>529920</v>
       </c>
       <c r="F46" t="n">
-        <v>13276.23</v>
+        <v>12633.29</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0086</v>
+        <v>0.0081</v>
       </c>
       <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MKIP01</t>
+          <t>AGBL01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>INE634S01028</t>
+          <t>INE732I01013</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mankind Pharma Limited</t>
+          <t>Angel One Limited</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>529920</v>
+        <v>496132</v>
       </c>
       <c r="F47" t="n">
-        <v>12633.29</v>
+        <v>12365.59</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0081</v>
+        <v>0.008</v>
       </c>
       <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AGBL01</t>
+          <t>LUPL02</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>INE732I01013</t>
+          <t>INE326A01037</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Angel One Limited</t>
+          <t>Lupin Limited</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>496132</v>
+        <v>568687</v>
       </c>
       <c r="F48" t="n">
-        <v>12365.59</v>
+        <v>11166.17</v>
       </c>
       <c r="G48" t="n">
-        <v>0.008</v>
+        <v>0.0072</v>
       </c>
       <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LUPL02</t>
+          <t>TIIN01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>INE326A01037</t>
+          <t>INE325A01013</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lupin Limited</t>
+          <t>Timken India Limited</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>568687</v>
+        <v>346781</v>
       </c>
       <c r="F49" t="n">
-        <v>11166.17</v>
+        <v>10902.79</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0072</v>
+        <v>0.007</v>
       </c>
       <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TIIN01</t>
+          <t>BINL01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>INE325A01013</t>
+          <t>INE121J01017</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Timken India Limited</t>
+          <t>Indus Towers Limited</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Industrial Products</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>346781</v>
+        <v>2838087</v>
       </c>
       <c r="F50" t="n">
-        <v>10902.79</v>
+        <v>10319.28</v>
       </c>
       <c r="G50" t="n">
-        <v>0.007</v>
+        <v>0.0067</v>
       </c>
       <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BINL01</t>
+          <t>SENE01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>INE121J01017</t>
+          <t>INE1NPP01017</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Indus Towers Limited</t>
+          <t>Siemens Energy India Limited</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Telecom - Services</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2838087</v>
+        <v>320000</v>
       </c>
       <c r="F51" t="n">
-        <v>10319.28</v>
+        <v>10193.92</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0067</v>
+        <v>0.0066</v>
       </c>
       <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SENE01</t>
+          <t>UTIA01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>INE1NPP01017</t>
+          <t>INE094J01016</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Siemens Energy India Limited</t>
+          <t>UTI Asset Management Company Limited</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Electrical Equipment</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>320000</v>
+        <v>800000</v>
       </c>
       <c r="F52" t="n">
-        <v>10193.92</v>
+        <v>9980.799999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0066</v>
+        <v>0.0064</v>
       </c>
       <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UTIA01</t>
+          <t>WHIL01</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>INE094J01016</t>
+          <t>INE715A01015</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>UTI Asset Management Company Limited</t>
+          <t>Wheels India Limited</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>800000</v>
+        <v>1099843</v>
       </c>
       <c r="F53" t="n">
-        <v>9980.799999999999</v>
+        <v>9922.23</v>
       </c>
       <c r="G53" t="n">
         <v>0.0064</v>
@@ -2143,17 +2143,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>WHIL01</t>
+          <t>AUAX01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>INE715A01015</t>
+          <t>INE449A01011</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Wheels India Limited</t>
+          <t>Automotive Axles Limited</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2162,158 +2162,158 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1099843</v>
+        <v>571598</v>
       </c>
       <c r="F54" t="n">
-        <v>9922.23</v>
+        <v>9721.17</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0064</v>
+        <v>0.0063</v>
       </c>
       <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AUAX01</t>
+          <t>PVRL01</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>INE449A01011</t>
+          <t>INE191H01014</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Automotive Axles Limited</t>
+          <t>PVR INOX Limited</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Auto Components</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>571598</v>
+        <v>698088</v>
       </c>
       <c r="F55" t="n">
-        <v>9721.17</v>
+        <v>8423.129999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0063</v>
+        <v>0.0054</v>
       </c>
       <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PVRL01</t>
+          <t>TATC01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>INE191H01014</t>
+          <t>INE0GK401011</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PVR INOX Limited</t>
+          <t>Tatva Chintan Pharma Chem Limited</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>698088</v>
+        <v>536700</v>
       </c>
       <c r="F56" t="n">
-        <v>8423.129999999999</v>
+        <v>7633.48</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0054</v>
+        <v>0.0049</v>
       </c>
       <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TATC01</t>
+          <t>BLUS03</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>INE0GK401011</t>
+          <t>INE472A01039</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tatva Chintan Pharma Chem Limited</t>
+          <t>Blue Star Limited</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Chemicals &amp; Petrochemicals</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>536700</v>
+        <v>335220</v>
       </c>
       <c r="F57" t="n">
-        <v>7633.48</v>
+        <v>6494.55</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0049</v>
+        <v>0.0042</v>
       </c>
       <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BLUS03</t>
+          <t>ASTP04</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>INE472A01039</t>
+          <t>INE006I01046</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Blue Star Limited</t>
+          <t>Astral Limited</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>335220</v>
+        <v>400000</v>
       </c>
       <c r="F58" t="n">
-        <v>6494.55</v>
+        <v>5800.4</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0042</v>
+        <v>0.0037</v>
       </c>
       <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ASTP04</t>
+          <t>CARU03</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>INE006I01046</t>
+          <t>INE120A01034</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Astral Limited</t>
+          <t>Carborundum Universal Limited</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2322,175 +2322,143 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="F59" t="n">
-        <v>5800.4</v>
+        <v>5403</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0037</v>
+        <v>0.0035</v>
       </c>
       <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CARU03</t>
+          <t>MAHI02</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>INE120A01034</t>
+          <t>INE101A01026</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Carborundum Universal Limited</t>
+          <t>Mahindra &amp; Mahindra Limited</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Industrial Products</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>600000</v>
+        <v>150000</v>
       </c>
       <c r="F60" t="n">
-        <v>5403</v>
+        <v>5230.8</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0035</v>
+        <v>0.0034</v>
       </c>
       <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MAHI02</t>
+          <t>NGEL01</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INE101A01026</t>
+          <t>INE0ONG01011</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mahindra &amp; Mahindra Limited</t>
+          <t>NTPC Green Energy Limited</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Automobiles</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>150000</v>
+        <v>4597092</v>
       </c>
       <c r="F61" t="n">
-        <v>5230.8</v>
+        <v>4741.44</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0034</v>
+        <v>0.0031</v>
       </c>
       <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NGEL01</t>
+          <t>IEIN02</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>INE0ONG01011</t>
+          <t>INE663F01032</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NTPC Green Energy Limited</t>
+          <t>Info Edge (India) Limited</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4597092</v>
+        <v>300000</v>
       </c>
       <c r="F62" t="n">
-        <v>4741.44</v>
+        <v>4134.9</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0031</v>
+        <v>0.0027</v>
       </c>
       <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IEIN02</t>
+          <t>SCDL01</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INE663F01032</t>
+          <t>INE0Q3R01026</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Info Edge (India) Limited</t>
+          <t>Sundaram Clayton Limited</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Retailing</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>300000</v>
+        <v>177430</v>
       </c>
       <c r="F63" t="n">
-        <v>4134.9</v>
+        <v>2651.87</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0027</v>
+        <v>0.0017</v>
       </c>
       <c r="H63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>SCDL01</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>INE0Q3R01026</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Sundaram Clayton Limited</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>177430</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2651.87</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
